--- a/Deep Learning/Lifestyle Management/Hyperparameter Variations.xlsx
+++ b/Deep Learning/Lifestyle Management/Hyperparameter Variations.xlsx
@@ -173,12 +173,204 @@
         </r>
       </text>
     </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>Dropout Rate = 0.5                       Dense = Relu and Softmax                       Optimizer = adam</t>
   </si>
@@ -208,7 +400,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +435,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -385,15 +590,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -420,6 +616,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -715,263 +920,295 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>32</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="10">
         <v>0.57840000000000003</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>0.72360000000000002</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>60</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>32</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="7">
         <v>0.62770000000000004</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>0.72840000000000005</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>100</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>32</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>0.47610000000000002</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="6">
         <v>0.83679999999999999</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="5">
+      <c r="B8" s="2">
         <v>200</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>32</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="2">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>300</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>32</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="D9" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="5">
+      <c r="B10" s="2">
         <v>400</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>32</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="D10" s="2">
+        <v>0.48530000000000001</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <v>32</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="5">
+      <c r="B12" s="2">
         <v>600</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <v>32</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="D12" s="2">
+        <v>0.40460000000000002</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>20</v>
       </c>
-      <c r="C14" s="6">
-        <v>32</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="3">
+        <v>64</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="5">
+      <c r="B15" s="2">
         <v>60</v>
       </c>
-      <c r="C15" s="6">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="3">
+        <v>64</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="5">
+      <c r="B16" s="2">
         <v>100</v>
       </c>
-      <c r="C16" s="6">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="3">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+      <c r="B17" s="2">
         <v>200</v>
       </c>
-      <c r="C17" s="6">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="3">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="5">
+      <c r="B18" s="2">
         <v>300</v>
       </c>
-      <c r="C18" s="6">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="3">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="5">
+      <c r="B19" s="2">
         <v>400</v>
       </c>
-      <c r="C19" s="6">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="3">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="5">
+      <c r="B20" s="2">
         <v>500</v>
       </c>
-      <c r="C20" s="6">
-        <v>32</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="3">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="5">
+      <c r="B21" s="2">
         <v>600</v>
       </c>
-      <c r="C21" s="6">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="C21" s="3">
+        <v>64</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Deep Learning/Lifestyle Management/Hyperparameter Variations.xlsx
+++ b/Deep Learning/Lifestyle Management/Hyperparameter Variations.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\shehan\Downloads\20_21-j19\Deep Learning\Lifestyle Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Y04 Projects\Fitness-Mobile-Game\20_21-j19\Deep Learning\Lifestyle Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{298D8900-1667-43A8-9E3F-DFB484A563C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,252 +25,253 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Shehan</author>
+    <author>Shehan Jiffry</author>
   </authors>
   <commentList>
-    <comment ref="F5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -293,55 +295,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Shehan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{33415F64-33DE-4E13-8F2A-DEB8A349C798}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shehan Jiffry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G11" authorId="1" shapeId="0" xr:uid="{869C3AC6-B287-409F-928F-3A04B860CECA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan Jiffry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -370,7 +420,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Dropout Rate = 0.5                       Dense = Relu and Softmax                       Optimizer = adam</t>
   </si>
@@ -399,8 +449,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,21 +955,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="6" width="15.6328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="15.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1">
       <c r="E2" s="11" t="s">
         <v>0</v>
       </c>
@@ -933,8 +983,8 @@
       <c r="M2" s="12"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1">
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
@@ -954,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14">
       <c r="B5" s="3">
         <v>20</v>
       </c>
@@ -974,7 +1024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14">
       <c r="B6" s="2">
         <v>60</v>
       </c>
@@ -994,7 +1044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14">
       <c r="B7" s="2">
         <v>100</v>
       </c>
@@ -1014,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14">
       <c r="B8" s="2">
         <v>200</v>
       </c>
@@ -1034,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14">
       <c r="B9" s="2">
         <v>300</v>
       </c>
@@ -1054,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14">
       <c r="B10" s="2">
         <v>400</v>
       </c>
@@ -1074,19 +1124,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14">
       <c r="B11" s="2">
         <v>500</v>
       </c>
       <c r="C11" s="3">
         <v>32</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>0.43459999999999999</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.90049999999999997</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
       <c r="B12" s="2">
         <v>600</v>
       </c>
@@ -1106,7 +1164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1114,7 +1172,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14">
       <c r="B14" s="3">
         <v>20</v>
       </c>
@@ -1126,7 +1184,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14">
       <c r="B15" s="2">
         <v>60</v>
       </c>
@@ -1138,7 +1196,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14">
       <c r="B16" s="2">
         <v>100</v>
       </c>
@@ -1150,7 +1208,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7">
       <c r="B17" s="2">
         <v>200</v>
       </c>
@@ -1162,7 +1220,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7">
       <c r="B18" s="2">
         <v>300</v>
       </c>
@@ -1174,7 +1232,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7">
       <c r="B19" s="2">
         <v>400</v>
       </c>
@@ -1186,7 +1244,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7">
       <c r="B20" s="2">
         <v>500</v>
       </c>
@@ -1198,7 +1256,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7">
       <c r="B21" s="2">
         <v>600</v>
       </c>

--- a/Deep Learning/Lifestyle Management/Hyperparameter Variations.xlsx
+++ b/Deep Learning/Lifestyle Management/Hyperparameter Variations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Y04 Projects\Fitness-Mobile-Game\20_21-j19\Deep Learning\Lifestyle Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{298D8900-1667-43A8-9E3F-DFB484A563C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2686695B-C265-48B0-8F46-BE794FD11B4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,12 +415,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="F21" authorId="1" shapeId="0" xr:uid="{55431529-3778-411E-A164-A7D848955835}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shehan Jiffry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G21" authorId="1" shapeId="0" xr:uid="{870D76DF-8817-4E29-8430-6E56C8434BE9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Shehan Jiffry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Dropout Rate = 0.5                       Dense = Relu and Softmax                       Optimizer = adam</t>
   </si>
@@ -958,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,10 +1311,18 @@
       <c r="C21" s="3">
         <v>64</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="D21" s="3">
+        <v>0.68559999999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.90710000000000002</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
